--- a/app/views/assets/files/model.xlsx
+++ b/app/views/assets/files/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\xampp\htdocs\freelancer\control-ads\app\views\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\xampp\htdocs\freelancer\control-ads\app\views\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>Manual CPC</t>
   </si>
   <si>
-    <t>dd/mm/aaaa</t>
-  </si>
-  <si>
     <t>Colsubsidio Medico</t>
   </si>
   <si>
@@ -129,6 +126,27 @@
   </si>
   <si>
     <t>PREFIXSITELINK</t>
+  </si>
+  <si>
+    <t>section 8 government housing,
+section 8 housing,
+section 8 housing for seniors,
+section 8 housing phone number,
+section 8 housing authority,
+section 8 housing number,
+emergency section 8 housing,
+government hud homes,
+section 8 housing program,
+section 8 housing for elderly,
+affordable section 8 housing,
+go section 8 housing,
+qualifying for section 8 housing,
+section 8 housing houses,
+pha section 8 housing,
+housing section 8 housing,
+8 section 8 housing,
+accept section 8 housing,
+housing authority section 8 housi,</t>
   </si>
 </sst>
 </file>
@@ -192,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,6 +220,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +444,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -446,55 +467,55 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -525,40 +546,41 @@
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -570,34 +592,35 @@
         <v>0.05</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/app/views/assets/files/model.xlsx
+++ b/app/views/assets/files/model.xlsx
@@ -19,62 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
-  <si>
-    <t>COL - A094 - Colsubsidio Medico</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Manual CPC</t>
   </si>
   <si>
-    <t>Colsubsidio Medico</t>
-  </si>
-  <si>
     <t>iphone</t>
   </si>
   <si>
-    <t>gp_1223_col_a094_cap0001</t>
-  </si>
-  <si>
     <t>pesquisa</t>
   </si>
   <si>
     <t>google</t>
   </si>
   <si>
-    <t>NÍVEL 1</t>
-  </si>
-  <si>
     <t>sl</t>
-  </si>
-  <si>
-    <t>COL - A095 - Fondo Emprender</t>
-  </si>
-  <si>
-    <t>COL - A096 - Fondo Emprender</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Fondo Emprender</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Fondo Emprender</t>
-    </r>
-  </si>
-  <si>
-    <t>gp_1224_col_a095_cap0001</t>
   </si>
   <si>
     <t>CAMPAIGN</t>
@@ -147,6 +106,39 @@
 8 section 8 housing,
 accept section 8 housing,
 housing authority section 8 housi,</t>
+  </si>
+  <si>
+    <t>dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>https://co.eletricanet.com.br/como-hacer-arroz/</t>
+  </si>
+  <si>
+    <t>COL - A170 - Como Hacer Arroz</t>
+  </si>
+  <si>
+    <t>gp_1881_col_a170_cap0001</t>
+  </si>
+  <si>
+    <t>Como Hacer Arroz</t>
+  </si>
+  <si>
+    <t>COL - A171 - Como Hacer Arroz En Casa</t>
+  </si>
+  <si>
+    <t>Como Hacer Arroz En Casa</t>
+  </si>
+  <si>
+    <t>gp_1892_col_a171_cap0001</t>
+  </si>
+  <si>
+    <t>https://co.eletricanet.com.br/como-hacer-arroz-2/</t>
+  </si>
+  <si>
+    <t>NIVEL 1</t>
   </si>
 </sst>
 </file>
@@ -177,16 +169,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,8 +201,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -216,15 +211,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,79 +437,82 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -527,104 +524,118 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>0.05</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0.05</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>